--- a/age_means_data1.xlsx
+++ b/age_means_data1.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>59.871</v>
+        <v>59.911</v>
       </c>
       <c r="C2">
-        <v>0.296</v>
+        <v>0.259</v>
       </c>
       <c r="D2">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E2">
-        <v>59.291</v>
+        <v>59.402</v>
       </c>
       <c r="F2">
-        <v>60.452</v>
+        <v>60.42</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -428,19 +428,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>62.075</v>
+        <v>61.934</v>
       </c>
       <c r="C3">
-        <v>0.307</v>
+        <v>0.27</v>
       </c>
       <c r="D3">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E3">
-        <v>61.472</v>
+        <v>61.405</v>
       </c>
       <c r="F3">
-        <v>62.678</v>
+        <v>62.463</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -455,19 +455,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>63.099</v>
+        <v>62.924</v>
       </c>
       <c r="C4">
-        <v>0.642</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E4">
-        <v>61.84</v>
+        <v>61.746</v>
       </c>
       <c r="F4">
-        <v>64.35899999999999</v>
+        <v>64.101</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>111.473</v>
+        <v>111.709</v>
       </c>
       <c r="C5">
-        <v>0.522</v>
+        <v>0.456</v>
       </c>
       <c r="D5">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E5">
-        <v>110.45</v>
+        <v>110.815</v>
       </c>
       <c r="F5">
-        <v>112.497</v>
+        <v>112.602</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>110.823</v>
+        <v>111.264</v>
       </c>
       <c r="C6">
-        <v>0.542</v>
+        <v>0.474</v>
       </c>
       <c r="D6">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E6">
-        <v>109.76</v>
+        <v>110.335</v>
       </c>
       <c r="F6">
-        <v>111.885</v>
+        <v>112.193</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>108.722</v>
+        <v>108.822</v>
       </c>
       <c r="C7">
-        <v>1.131</v>
+        <v>1.054</v>
       </c>
       <c r="D7">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E7">
-        <v>106.502</v>
+        <v>106.754</v>
       </c>
       <c r="F7">
-        <v>110.941</v>
+        <v>110.89</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>93.63800000000001</v>
+        <v>94.871</v>
       </c>
       <c r="C8">
-        <v>0.724</v>
+        <v>0.635</v>
       </c>
       <c r="D8">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E8">
-        <v>92.218</v>
+        <v>93.626</v>
       </c>
       <c r="F8">
-        <v>95.05800000000001</v>
+        <v>96.116</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>101.347</v>
+        <v>101.907</v>
       </c>
       <c r="C9">
-        <v>0.752</v>
+        <v>0.66</v>
       </c>
       <c r="D9">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E9">
-        <v>99.873</v>
+        <v>100.613</v>
       </c>
       <c r="F9">
-        <v>102.821</v>
+        <v>103.201</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>103.829</v>
+        <v>103.666</v>
       </c>
       <c r="C10">
-        <v>1.57</v>
+        <v>1.469</v>
       </c>
       <c r="D10">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E10">
-        <v>100.749</v>
+        <v>100.784</v>
       </c>
       <c r="F10">
-        <v>106.909</v>
+        <v>106.547</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="B11">
-        <v>18.028</v>
+        <v>18.131</v>
       </c>
       <c r="C11">
-        <v>0.134</v>
+        <v>0.116</v>
       </c>
       <c r="D11">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E11">
-        <v>17.766</v>
+        <v>17.903</v>
       </c>
       <c r="F11">
-        <v>18.29</v>
+        <v>18.359</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>18.973</v>
+        <v>18.993</v>
       </c>
       <c r="C12">
-        <v>0.139</v>
+        <v>0.121</v>
       </c>
       <c r="D12">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E12">
-        <v>18.701</v>
+        <v>18.756</v>
       </c>
       <c r="F12">
-        <v>19.245</v>
+        <v>19.23</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B13">
-        <v>19.038</v>
+        <v>19.145</v>
       </c>
       <c r="C13">
-        <v>0.29</v>
+        <v>0.269</v>
       </c>
       <c r="D13">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E13">
-        <v>18.47</v>
+        <v>18.617</v>
       </c>
       <c r="F13">
-        <v>19.606</v>
+        <v>19.672</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14">
-        <v>44.192</v>
+        <v>44.164</v>
       </c>
       <c r="C14">
-        <v>0.216</v>
+        <v>0.189</v>
       </c>
       <c r="D14">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E14">
-        <v>43.769</v>
+        <v>43.792</v>
       </c>
       <c r="F14">
-        <v>44.615</v>
+        <v>44.535</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -752,19 +752,19 @@
         </is>
       </c>
       <c r="B15">
-        <v>44.781</v>
+        <v>44.849</v>
       </c>
       <c r="C15">
-        <v>0.224</v>
+        <v>0.197</v>
       </c>
       <c r="D15">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E15">
-        <v>44.341</v>
+        <v>44.463</v>
       </c>
       <c r="F15">
-        <v>45.22</v>
+        <v>45.235</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16">
-        <v>44.917</v>
+        <v>44.983</v>
       </c>
       <c r="C16">
-        <v>0.468</v>
+        <v>0.438</v>
       </c>
       <c r="D16">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E16">
-        <v>43.999</v>
+        <v>44.123</v>
       </c>
       <c r="F16">
-        <v>45.835</v>
+        <v>45.842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="B17">
-        <v>115.283</v>
+        <v>115.622</v>
       </c>
       <c r="C17">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E17">
-        <v>114.361</v>
+        <v>114.838</v>
       </c>
       <c r="F17">
-        <v>116.205</v>
+        <v>116.406</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -833,19 +833,19 @@
         </is>
       </c>
       <c r="B18">
-        <v>116.534</v>
+        <v>116.985</v>
       </c>
       <c r="C18">
-        <v>0.488</v>
+        <v>0.416</v>
       </c>
       <c r="D18">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E18">
-        <v>115.577</v>
+        <v>116.17</v>
       </c>
       <c r="F18">
-        <v>117.491</v>
+        <v>117.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -860,19 +860,19 @@
         </is>
       </c>
       <c r="B19">
-        <v>114.542</v>
+        <v>114.859</v>
       </c>
       <c r="C19">
-        <v>1.02</v>
+        <v>0.925</v>
       </c>
       <c r="D19">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E19">
-        <v>112.542</v>
+        <v>113.045</v>
       </c>
       <c r="F19">
-        <v>116.541</v>
+        <v>116.674</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -887,19 +887,19 @@
         </is>
       </c>
       <c r="B20">
-        <v>148.983</v>
+        <v>150.054</v>
       </c>
       <c r="C20">
-        <v>0.625</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="D20">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E20">
-        <v>147.757</v>
+        <v>148.963</v>
       </c>
       <c r="F20">
-        <v>150.21</v>
+        <v>151.146</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -914,19 +914,19 @@
         </is>
       </c>
       <c r="B21">
-        <v>155.466</v>
+        <v>156.268</v>
       </c>
       <c r="C21">
-        <v>0.649</v>
+        <v>0.579</v>
       </c>
       <c r="D21">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E21">
-        <v>154.193</v>
+        <v>155.133</v>
       </c>
       <c r="F21">
-        <v>156.74</v>
+        <v>157.402</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="B22">
-        <v>156.95</v>
+        <v>157.133</v>
       </c>
       <c r="C22">
-        <v>1.356</v>
+        <v>1.288</v>
       </c>
       <c r="D22">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E22">
-        <v>154.289</v>
+        <v>154.607</v>
       </c>
       <c r="F22">
-        <v>159.61</v>
+        <v>159.659</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -968,19 +968,19 @@
         </is>
       </c>
       <c r="B23">
-        <v>280.549</v>
+        <v>281.682</v>
       </c>
       <c r="C23">
-        <v>0.663</v>
+        <v>0.587</v>
       </c>
       <c r="D23">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E23">
-        <v>279.248</v>
+        <v>280.532</v>
       </c>
       <c r="F23">
-        <v>281.85</v>
+        <v>282.833</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B24">
-        <v>282.112</v>
+        <v>283.146</v>
       </c>
       <c r="C24">
-        <v>0.6889999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="D24">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E24">
-        <v>280.762</v>
+        <v>281.95</v>
       </c>
       <c r="F24">
-        <v>283.463</v>
+        <v>284.342</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B25">
-        <v>286.189</v>
+        <v>285.977</v>
       </c>
       <c r="C25">
-        <v>1.439</v>
+        <v>1.358</v>
       </c>
       <c r="D25">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E25">
-        <v>283.367</v>
+        <v>283.314</v>
       </c>
       <c r="F25">
-        <v>289.011</v>
+        <v>288.64</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="B26">
-        <v>146.303</v>
+        <v>146.715</v>
       </c>
       <c r="C26">
-        <v>0.329</v>
+        <v>0.29</v>
       </c>
       <c r="D26">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E26">
-        <v>145.659</v>
+        <v>146.148</v>
       </c>
       <c r="F26">
-        <v>146.948</v>
+        <v>147.283</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>147.121</v>
+        <v>147.511</v>
       </c>
       <c r="C27">
-        <v>0.341</v>
+        <v>0.301</v>
       </c>
       <c r="D27">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E27">
-        <v>146.452</v>
+        <v>146.921</v>
       </c>
       <c r="F27">
-        <v>147.791</v>
+        <v>148.101</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1103,19 +1103,19 @@
         </is>
       </c>
       <c r="B28">
-        <v>148.323</v>
+        <v>148.689</v>
       </c>
       <c r="C28">
-        <v>0.713</v>
+        <v>0.67</v>
       </c>
       <c r="D28">
-        <v>1669</v>
+        <v>2007</v>
       </c>
       <c r="E28">
-        <v>146.925</v>
+        <v>147.375</v>
       </c>
       <c r="F28">
-        <v>149.721</v>
+        <v>150.003</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
